--- a/output/2018/summary_sorted/summary_sorted_covid_analysis_2018_all_population_group.xlsx
+++ b/output/2018/summary_sorted/summary_sorted_covid_analysis_2018_all_population_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="300">
   <si>
     <t>district</t>
   </si>
@@ -28,6 +28,186 @@
     <t>c13_max</t>
   </si>
   <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c14_min</t>
+  </si>
+  <si>
+    <t>c14_max</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>c15_min</t>
+  </si>
+  <si>
+    <t>c15_max</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>c16_min</t>
+  </si>
+  <si>
+    <t>c16_max</t>
+  </si>
+  <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>c17_min</t>
+  </si>
+  <si>
+    <t>c17_max</t>
+  </si>
+  <si>
+    <t>c18</t>
+  </si>
+  <si>
+    <t>c18_min</t>
+  </si>
+  <si>
+    <t>c18_max</t>
+  </si>
+  <si>
+    <t>c21</t>
+  </si>
+  <si>
+    <t>c21_min</t>
+  </si>
+  <si>
+    <t>c21_max</t>
+  </si>
+  <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>c22_min</t>
+  </si>
+  <si>
+    <t>c22_max</t>
+  </si>
+  <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t>c25_min</t>
+  </si>
+  <si>
+    <t>c25_max</t>
+  </si>
+  <si>
+    <t>c26</t>
+  </si>
+  <si>
+    <t>c26_min</t>
+  </si>
+  <si>
+    <t>c26_max</t>
+  </si>
+  <si>
+    <t>c27</t>
+  </si>
+  <si>
+    <t>c27_min</t>
+  </si>
+  <si>
+    <t>c27_max</t>
+  </si>
+  <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>c28_min</t>
+  </si>
+  <si>
+    <t>c28_max</t>
+  </si>
+  <si>
+    <t>c29</t>
+  </si>
+  <si>
+    <t>c29_min</t>
+  </si>
+  <si>
+    <t>c29_max</t>
+  </si>
+  <si>
+    <t>c30</t>
+  </si>
+  <si>
+    <t>c30_min</t>
+  </si>
+  <si>
+    <t>c30_max</t>
+  </si>
+  <si>
+    <t>c32</t>
+  </si>
+  <si>
+    <t>c32_min</t>
+  </si>
+  <si>
+    <t>c32_max</t>
+  </si>
+  <si>
+    <t>c37</t>
+  </si>
+  <si>
+    <t>c37_min</t>
+  </si>
+  <si>
+    <t>c37_max</t>
+  </si>
+  <si>
+    <t>c39</t>
+  </si>
+  <si>
+    <t>c39_min</t>
+  </si>
+  <si>
+    <t>c39_max</t>
+  </si>
+  <si>
+    <t>c40_i</t>
+  </si>
+  <si>
+    <t>c40_i_min</t>
+  </si>
+  <si>
+    <t>c40_i_max</t>
+  </si>
+  <si>
+    <t>c40_ii</t>
+  </si>
+  <si>
+    <t>c40_ii_min</t>
+  </si>
+  <si>
+    <t>c40_ii_max</t>
+  </si>
+  <si>
+    <t>c40_iii</t>
+  </si>
+  <si>
+    <t>c40_iii_min</t>
+  </si>
+  <si>
+    <t>c40_iii_max</t>
+  </si>
+  <si>
+    <t>c40_iv</t>
+  </si>
+  <si>
+    <t>c40_iv_min</t>
+  </si>
+  <si>
+    <t>c40_iv_max</t>
+  </si>
+  <si>
     <t>t6</t>
   </si>
   <si>
@@ -46,78 +226,6 @@
     <t>t8_max</t>
   </si>
   <si>
-    <t>c16</t>
-  </si>
-  <si>
-    <t>c16_min</t>
-  </si>
-  <si>
-    <t>c16_max</t>
-  </si>
-  <si>
-    <t>c21</t>
-  </si>
-  <si>
-    <t>c21_min</t>
-  </si>
-  <si>
-    <t>c21_max</t>
-  </si>
-  <si>
-    <t>c22</t>
-  </si>
-  <si>
-    <t>c22_min</t>
-  </si>
-  <si>
-    <t>c22_max</t>
-  </si>
-  <si>
-    <t>c39</t>
-  </si>
-  <si>
-    <t>c39_min</t>
-  </si>
-  <si>
-    <t>c39_max</t>
-  </si>
-  <si>
-    <t>c40_i</t>
-  </si>
-  <si>
-    <t>c40_i_min</t>
-  </si>
-  <si>
-    <t>c40_i_max</t>
-  </si>
-  <si>
-    <t>c40_ii</t>
-  </si>
-  <si>
-    <t>c40_ii_min</t>
-  </si>
-  <si>
-    <t>c40_ii_max</t>
-  </si>
-  <si>
-    <t>c40_iii</t>
-  </si>
-  <si>
-    <t>c40_iii_min</t>
-  </si>
-  <si>
-    <t>c40_iii_max</t>
-  </si>
-  <si>
-    <t>c40_iv</t>
-  </si>
-  <si>
-    <t>c40_iv_min</t>
-  </si>
-  <si>
-    <t>c40_iv_max</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -140,6 +248,264 @@
   </si>
   <si>
     <t>0.63359135588529</t>
+  </si>
+  <si>
+    <t>% HH with "moderately insecure" or "severely insecure" food security status, using CARI Analysis (composite using FCS, food expenditure share, and CS categories)</t>
+  </si>
+  <si>
+    <t>numerical</t>
+  </si>
+  <si>
+    <t>1.57321545838306</t>
+  </si>
+  <si>
+    <t>1.54449090375351</t>
+  </si>
+  <si>
+    <t>1.6019400130126</t>
+  </si>
+  <si>
+    <t>% of HHs with a poor FCS</t>
+  </si>
+  <si>
+    <t>0.0227262381036789</t>
+  </si>
+  <si>
+    <t>0.0166586211305778</t>
+  </si>
+  <si>
+    <t>0.02879385507678</t>
+  </si>
+  <si>
+    <t>% HH relying on emergency strategies to cope with a lack of resources to meet basic needs. 
+(also analyse for each of the strategies highlighted in red individually)</t>
+  </si>
+  <si>
+    <t>0.775682375782498</t>
+  </si>
+  <si>
+    <t>0.75601336521456</t>
+  </si>
+  <si>
+    <t>0.795351386350436</t>
+  </si>
+  <si>
+    <t>% of HH spending more than 40% of their total expenditure on food
+(for 2020 we'd also need the percentages for the following percentage categories: 0%-9.9%, 10%-19.9%, 20%-29.9%......)</t>
+  </si>
+  <si>
+    <t>0.411276055706418</t>
+  </si>
+  <si>
+    <t>0.388222041535587</t>
+  </si>
+  <si>
+    <t>0.434330069877249</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>% HH with children with psychosocial distress (proxy data with behaviour change)</t>
+  </si>
+  <si>
+    <t>0.164496953129986</t>
+  </si>
+  <si>
+    <t>0.145338741113525</t>
+  </si>
+  <si>
+    <t>0.183655165146447</t>
+  </si>
+  <si>
+    <t>Livelihoods</t>
+  </si>
+  <si>
+    <t>% HH with at least one adult (18+) unemployed and seeking work</t>
+  </si>
+  <si>
+    <t>0.293805063110464</t>
+  </si>
+  <si>
+    <t>0.271887175684228</t>
+  </si>
+  <si>
+    <t>0.315722950536701</t>
+  </si>
+  <si>
+    <t>% HH with at least one person under (&lt;18) working</t>
+  </si>
+  <si>
+    <t>0.168910751225079</t>
+  </si>
+  <si>
+    <t>0.144325357659691</t>
+  </si>
+  <si>
+    <t>0.193496144790466</t>
+  </si>
+  <si>
+    <t>% of female headed households whose average monthly income [from employment and pension] was less than 480,000 IQD/month</t>
+  </si>
+  <si>
+    <t>0.493716100991197</t>
+  </si>
+  <si>
+    <t>0.354419757478374</t>
+  </si>
+  <si>
+    <t>0.63301244450402</t>
+  </si>
+  <si>
+    <t>% of households relying  on humanitarian assistance as a primary  source of income</t>
+  </si>
+  <si>
+    <t>0.0127487598203877</t>
+  </si>
+  <si>
+    <t>0.00795597362033751</t>
+  </si>
+  <si>
+    <t>0.0175415460204379</t>
+  </si>
+  <si>
+    <t>% HH with all working adults in unstable employment</t>
+  </si>
+  <si>
+    <t>0.609634692344655</t>
+  </si>
+  <si>
+    <t>0.583445865898794</t>
+  </si>
+  <si>
+    <t>0.635823518790515</t>
+  </si>
+  <si>
+    <t>% HH spending more than 30% of total expenditure on rent</t>
+  </si>
+  <si>
+    <t>0.451878736136754</t>
+  </si>
+  <si>
+    <t>0.428104515934778</t>
+  </si>
+  <si>
+    <t>0.475652956338731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% HH with debt value &gt; 505,000 IQD </t>
+  </si>
+  <si>
+    <t>0.487992403337838</t>
+  </si>
+  <si>
+    <t>0.464407616306882</t>
+  </si>
+  <si>
+    <t>0.511577190368794</t>
+  </si>
+  <si>
+    <t>% HH unable to afford basic needs (% HH taking on debt due to healthcare, food, education, or basic household expenditures)</t>
+  </si>
+  <si>
+    <t>0.491476112212272</t>
+  </si>
+  <si>
+    <t>0.467946916797817</t>
+  </si>
+  <si>
+    <t>0.515005307626728</t>
+  </si>
+  <si>
+    <t>% HHs reporting risk of eviction</t>
+  </si>
+  <si>
+    <t>0.0669238445994565</t>
+  </si>
+  <si>
+    <t>0.0547236776669703</t>
+  </si>
+  <si>
+    <t>0.0791240115319427</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% HH reporting to have received aid </t>
+  </si>
+  <si>
+    <t>0.108329172109907</t>
+  </si>
+  <si>
+    <t>0.0962787173294586</t>
+  </si>
+  <si>
+    <t>0.120379626890356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% HH satsified with aid received </t>
+  </si>
+  <si>
+    <t>0.715385220986666</t>
+  </si>
+  <si>
+    <t>0.666400895122181</t>
+  </si>
+  <si>
+    <t>0.764369546851152</t>
+  </si>
+  <si>
+    <t>% HH not satsified by reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality not good enough
+</t>
+  </si>
+  <si>
+    <t>0.0557398690409635</t>
+  </si>
+  <si>
+    <t>0.0305432809195503</t>
+  </si>
+  <si>
+    <t>0.0809364571623767</t>
+  </si>
+  <si>
+    <t>Quantity not enough</t>
+  </si>
+  <si>
+    <t>0.183175109817025</t>
+  </si>
+  <si>
+    <t>0.14137087014553</t>
+  </si>
+  <si>
+    <t>0.22497934948852</t>
+  </si>
+  <si>
+    <t>Delays in delivery of aid</t>
+  </si>
+  <si>
+    <t>0.0265592247065934</t>
+  </si>
+  <si>
+    <t>0.00856201709904261</t>
+  </si>
+  <si>
+    <t>0.0445564323141442</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>0.00454305686086231</t>
+  </si>
+  <si>
+    <t>-0.00175540250359762</t>
+  </si>
+  <si>
+    <t>0.0108415162253222</t>
   </si>
   <si>
     <t>Risk Profile</t>
@@ -173,114 +539,6 @@
     <t>0.137731843763176</t>
   </si>
   <si>
-    <t xml:space="preserve">% HH relying on stress / crisis / emergency strategies to cope with a lack of resources to meet basic needs. </t>
-  </si>
-  <si>
-    <t>Selling household properties (refrigerator, television, jewelry…)</t>
-  </si>
-  <si>
-    <t>0.775682375782498</t>
-  </si>
-  <si>
-    <t>0.75601336521456</t>
-  </si>
-  <si>
-    <t>0.795351386350436</t>
-  </si>
-  <si>
-    <t>Livelihoods</t>
-  </si>
-  <si>
-    <t>% HH with at least one adult (18+) unemployed and seeking work</t>
-  </si>
-  <si>
-    <t>0.293805063110464</t>
-  </si>
-  <si>
-    <t>0.271887175684228</t>
-  </si>
-  <si>
-    <t>0.315722950536701</t>
-  </si>
-  <si>
-    <t>% HH with at least one person under (&lt;18) working</t>
-  </si>
-  <si>
-    <t>0.168910751225079</t>
-  </si>
-  <si>
-    <t>0.144325357659691</t>
-  </si>
-  <si>
-    <t>0.193496144790466</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% HH satsified with aid received </t>
-  </si>
-  <si>
-    <t>0.715385220986666</t>
-  </si>
-  <si>
-    <t>0.666400895122181</t>
-  </si>
-  <si>
-    <t>0.764369546851152</t>
-  </si>
-  <si>
-    <t>% HH not satsified by reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality not good enough </t>
-  </si>
-  <si>
-    <t>0.0557398690409635</t>
-  </si>
-  <si>
-    <t>0.0305432809195503</t>
-  </si>
-  <si>
-    <t>0.0809364571623767</t>
-  </si>
-  <si>
-    <t>Quantity not enough</t>
-  </si>
-  <si>
-    <t>0.183175109817025</t>
-  </si>
-  <si>
-    <t>0.14137087014553</t>
-  </si>
-  <si>
-    <t>0.22497934948852</t>
-  </si>
-  <si>
-    <t>Delays in delivery of aid</t>
-  </si>
-  <si>
-    <t>0.0265592247065934</t>
-  </si>
-  <si>
-    <t>0.00856201709904261</t>
-  </si>
-  <si>
-    <t>0.0445564323141442</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>0.00454305686086231</t>
-  </si>
-  <si>
-    <t>-0.00175540250359762</t>
-  </si>
-  <si>
-    <t>0.0108415162253222</t>
-  </si>
-  <si>
     <t>0.789479800364062</t>
   </si>
   <si>
@@ -290,6 +548,162 @@
     <t>0.810622644982847</t>
   </si>
   <si>
+    <t>1.70328645342669</t>
+  </si>
+  <si>
+    <t>1.68114048351008</t>
+  </si>
+  <si>
+    <t>1.72543242334329</t>
+  </si>
+  <si>
+    <t>0.00281322525440915</t>
+  </si>
+  <si>
+    <t>0.00112987197623113</t>
+  </si>
+  <si>
+    <t>0.00449657853258717</t>
+  </si>
+  <si>
+    <t>0.707092878801738</t>
+  </si>
+  <si>
+    <t>0.688400480858055</t>
+  </si>
+  <si>
+    <t>0.725785276745421</t>
+  </si>
+  <si>
+    <t>0.776012090222377</t>
+  </si>
+  <si>
+    <t>0.758979850457371</t>
+  </si>
+  <si>
+    <t>0.793044329987382</t>
+  </si>
+  <si>
+    <t>0.0429208706778323</t>
+  </si>
+  <si>
+    <t>0.0348709112436895</t>
+  </si>
+  <si>
+    <t>0.0509708301119751</t>
+  </si>
+  <si>
+    <t>0.247136919263199</t>
+  </si>
+  <si>
+    <t>0.229678730743415</t>
+  </si>
+  <si>
+    <t>0.264595107782983</t>
+  </si>
+  <si>
+    <t>0.131173010494393</t>
+  </si>
+  <si>
+    <t>0.112541616339381</t>
+  </si>
+  <si>
+    <t>0.149804404649405</t>
+  </si>
+  <si>
+    <t>0.894754564949322</t>
+  </si>
+  <si>
+    <t>0.838101888938598</t>
+  </si>
+  <si>
+    <t>0.951407240960046</t>
+  </si>
+  <si>
+    <t>0.214652539622201</t>
+  </si>
+  <si>
+    <t>0.199027398242183</t>
+  </si>
+  <si>
+    <t>0.230277681002219</t>
+  </si>
+  <si>
+    <t>0.599497996284062</t>
+  </si>
+  <si>
+    <t>0.57280091137073</t>
+  </si>
+  <si>
+    <t>0.626195081197395</t>
+  </si>
+  <si>
+    <t>0.431341405678296</t>
+  </si>
+  <si>
+    <t>0.41039084547319</t>
+  </si>
+  <si>
+    <t>0.452291965883401</t>
+  </si>
+  <si>
+    <t>0.383522645974582</t>
+  </si>
+  <si>
+    <t>0.362584275533882</t>
+  </si>
+  <si>
+    <t>0.404461016415282</t>
+  </si>
+  <si>
+    <t>0.921166255831698</t>
+  </si>
+  <si>
+    <t>0.911101821230267</t>
+  </si>
+  <si>
+    <t>0.931230690433129</t>
+  </si>
+  <si>
+    <t>0.790997770439237</t>
+  </si>
+  <si>
+    <t>0.773547416366404</t>
+  </si>
+  <si>
+    <t>0.80844812451207</t>
+  </si>
+  <si>
+    <t>0.0154750502452402</t>
+  </si>
+  <si>
+    <t>0.0109716863950981</t>
+  </si>
+  <si>
+    <t>0.0199784140953824</t>
+  </si>
+  <si>
+    <t>0.17478861818865</t>
+  </si>
+  <si>
+    <t>0.158139569432192</t>
+  </si>
+  <si>
+    <t>0.191437666945109</t>
+  </si>
+  <si>
+    <t>0.0137114154887288</t>
+  </si>
+  <si>
+    <t>0.00933117937756459</t>
+  </si>
+  <si>
+    <t>0.0180916515998929</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0.740062093132674</t>
   </si>
   <si>
@@ -308,72 +722,6 @@
     <t>0.257697163478422</t>
   </si>
   <si>
-    <t>0.707092878801738</t>
-  </si>
-  <si>
-    <t>0.688400480858055</t>
-  </si>
-  <si>
-    <t>0.725785276745421</t>
-  </si>
-  <si>
-    <t>0.247136919263199</t>
-  </si>
-  <si>
-    <t>0.229678730743415</t>
-  </si>
-  <si>
-    <t>0.264595107782983</t>
-  </si>
-  <si>
-    <t>0.131173010494393</t>
-  </si>
-  <si>
-    <t>0.112541616339381</t>
-  </si>
-  <si>
-    <t>0.149804404649405</t>
-  </si>
-  <si>
-    <t>0.790997770439237</t>
-  </si>
-  <si>
-    <t>0.773547416366404</t>
-  </si>
-  <si>
-    <t>0.80844812451207</t>
-  </si>
-  <si>
-    <t>0.0154750502452402</t>
-  </si>
-  <si>
-    <t>0.0109716863950981</t>
-  </si>
-  <si>
-    <t>0.0199784140953824</t>
-  </si>
-  <si>
-    <t>0.17478861818865</t>
-  </si>
-  <si>
-    <t>0.158139569432192</t>
-  </si>
-  <si>
-    <t>0.191437666945109</t>
-  </si>
-  <si>
-    <t>0.0137114154887288</t>
-  </si>
-  <si>
-    <t>0.00933117937756459</t>
-  </si>
-  <si>
-    <t>0.0180916515998929</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>0.715148999648262</t>
   </si>
   <si>
@@ -383,6 +731,177 @@
     <t>0.743056919760721</t>
   </si>
   <si>
+    <t>1.59628193281508</t>
+  </si>
+  <si>
+    <t>1.56214449818524</t>
+  </si>
+  <si>
+    <t>1.63041936744493</t>
+  </si>
+  <si>
+    <t>0.0173233771061183</t>
+  </si>
+  <si>
+    <t>0.0122228801690698</t>
+  </si>
+  <si>
+    <t>0.0224238740431668</t>
+  </si>
+  <si>
+    <t>0.756380509363109</t>
+  </si>
+  <si>
+    <t>0.733646394600408</t>
+  </si>
+  <si>
+    <t>0.779114624125811</t>
+  </si>
+  <si>
+    <t>0.53980975330524</t>
+  </si>
+  <si>
+    <t>0.511916331313901</t>
+  </si>
+  <si>
+    <t>0.567703175296578</t>
+  </si>
+  <si>
+    <t>0.166127817261124</t>
+  </si>
+  <si>
+    <t>0.142146538583475</t>
+  </si>
+  <si>
+    <t>0.190109095938774</t>
+  </si>
+  <si>
+    <t>0.35699458853235</t>
+  </si>
+  <si>
+    <t>0.329772967118371</t>
+  </si>
+  <si>
+    <t>0.384216209946329</t>
+  </si>
+  <si>
+    <t>0.0943212603642976</t>
+  </si>
+  <si>
+    <t>0.0751943994706085</t>
+  </si>
+  <si>
+    <t>0.113448121257987</t>
+  </si>
+  <si>
+    <t>0.830311271748416</t>
+  </si>
+  <si>
+    <t>0.725958753424895</t>
+  </si>
+  <si>
+    <t>0.934663790071937</t>
+  </si>
+  <si>
+    <t>0.00740510275399231</t>
+  </si>
+  <si>
+    <t>0.00237742268151377</t>
+  </si>
+  <si>
+    <t>0.0124327828264709</t>
+  </si>
+  <si>
+    <t>0.610801351742174</t>
+  </si>
+  <si>
+    <t>0.579251829363166</t>
+  </si>
+  <si>
+    <t>0.642350874121181</t>
+  </si>
+  <si>
+    <t>0.0716459816063685</t>
+  </si>
+  <si>
+    <t>0.0558499048125132</t>
+  </si>
+  <si>
+    <t>0.0874420584002238</t>
+  </si>
+  <si>
+    <t>0.607349623506624</t>
+  </si>
+  <si>
+    <t>0.580935861650209</t>
+  </si>
+  <si>
+    <t>0.633763385363039</t>
+  </si>
+  <si>
+    <t>0.434953948532098</t>
+  </si>
+  <si>
+    <t>0.407051824745423</t>
+  </si>
+  <si>
+    <t>0.462856072318773</t>
+  </si>
+  <si>
+    <t>0.0382231311804104</t>
+  </si>
+  <si>
+    <t>0.0260444300372091</t>
+  </si>
+  <si>
+    <t>0.0504018323236116</t>
+  </si>
+  <si>
+    <t>0.0457090163363796</t>
+  </si>
+  <si>
+    <t>0.0337492459625129</t>
+  </si>
+  <si>
+    <t>0.0576687867102463</t>
+  </si>
+  <si>
+    <t>0.86905015814978</t>
+  </si>
+  <si>
+    <t>0.799867818424943</t>
+  </si>
+  <si>
+    <t>0.938232497874618</t>
+  </si>
+  <si>
+    <t>0.0487602449128395</t>
+  </si>
+  <si>
+    <t>0.00685440387835692</t>
+  </si>
+  <si>
+    <t>0.0906660859473221</t>
+  </si>
+  <si>
+    <t>0.0684437959556856</t>
+  </si>
+  <si>
+    <t>0.0152798458196504</t>
+  </si>
+  <si>
+    <t>0.121607746091721</t>
+  </si>
+  <si>
+    <t>0.011760293778483</t>
+  </si>
+  <si>
+    <t>-0.0017699565563314</t>
+  </si>
+  <si>
+    <t>0.0252905441132973</t>
+  </si>
+  <si>
     <t>0.778225494942676</t>
   </si>
   <si>
@@ -399,69 +918,6 @@
   </si>
   <si>
     <t>0.151962579971172</t>
-  </si>
-  <si>
-    <t>0.756380509363109</t>
-  </si>
-  <si>
-    <t>0.733646394600408</t>
-  </si>
-  <si>
-    <t>0.779114624125811</t>
-  </si>
-  <si>
-    <t>0.35699458853235</t>
-  </si>
-  <si>
-    <t>0.329772967118371</t>
-  </si>
-  <si>
-    <t>0.384216209946329</t>
-  </si>
-  <si>
-    <t>0.0943212603642976</t>
-  </si>
-  <si>
-    <t>0.0751943994706085</t>
-  </si>
-  <si>
-    <t>0.113448121257987</t>
-  </si>
-  <si>
-    <t>0.86905015814978</t>
-  </si>
-  <si>
-    <t>0.799867818424943</t>
-  </si>
-  <si>
-    <t>0.938232497874618</t>
-  </si>
-  <si>
-    <t>0.0487602449128395</t>
-  </si>
-  <si>
-    <t>0.00685440387835692</t>
-  </si>
-  <si>
-    <t>0.0906660859473221</t>
-  </si>
-  <si>
-    <t>0.0684437959556856</t>
-  </si>
-  <si>
-    <t>0.0152798458196504</t>
-  </si>
-  <si>
-    <t>0.121607746091721</t>
-  </si>
-  <si>
-    <t>0.011760293778483</t>
-  </si>
-  <si>
-    <t>-0.0017699565563314</t>
-  </si>
-  <si>
-    <t>0.0252905441132973</t>
   </si>
 </sst>
 </file>
@@ -615,525 +1071,1173 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="X3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AD3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AG3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="X4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AD4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH4" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH5" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="V6" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AE6" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="AH6" t="s">
-        <v>87</v>
+        <v>120</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1252,525 +2356,1065 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="X3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AD3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AG3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="X4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AD4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH4" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH5" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="S6" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="U6" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="W6" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="Z6" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="AA6" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="AB6" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="AD6" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="AE6" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="AF6" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="AG6" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>205</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>226</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1889,525 +3533,1173 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="X3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="AD3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="AG3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="X4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AD4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH4" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH5" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="N6" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="O6" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="Q6" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="R6" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="S6" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="T6" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="U6" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="V6" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="W6" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="X6" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="Y6" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="Z6" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="AA6" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="AB6" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="AC6" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="AD6" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="AE6" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="AF6" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="AG6" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="AH6" t="s">
-        <v>118</v>
+        <v>266</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>284</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>286</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>287</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>288</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>290</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>291</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>294</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>297</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
